--- a/src/test/resources/data-test/groupmenu.xlsx
+++ b/src/test/resources/data-test/groupmenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRINGBOOT-PT-DIKA\pcmspringbootrestapidika\src\test\resources\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852C7332-7B6C-44AC-9011-F635C337CA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1500B51-0BFA-4A8A-9B6E-2E5203014193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{47EA533E-3F0C-4ED1-A111-B65235F9FF84}"/>
   </bookViews>
@@ -25,22 +25,22 @@
     <t>name</t>
   </si>
   <si>
-    <t>Sales132132</t>
+    <t>Sales123</t>
   </si>
   <si>
-    <t>IT132132</t>
+    <t>IT123</t>
   </si>
   <si>
-    <t>BOD132132</t>
+    <t>BOD123</t>
   </si>
   <si>
-    <t>User Management132132</t>
+    <t>User Management123</t>
   </si>
   <si>
-    <t>OPS132132</t>
+    <t>OPS123</t>
   </si>
   <si>
-    <t>HR132132</t>
+    <t>HR123</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/data-test/groupmenu.xlsx
+++ b/src/test/resources/data-test/groupmenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRINGBOOT-PT-DIKA\pcmspringbootrestapidika\src\test\resources\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1500B51-0BFA-4A8A-9B6E-2E5203014193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28530B-8440-422A-A642-A2408A150794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{47EA533E-3F0C-4ED1-A111-B65235F9FF84}"/>
   </bookViews>
@@ -25,29 +25,29 @@
     <t>name</t>
   </si>
   <si>
-    <t>Sales123</t>
+    <t>GM1</t>
   </si>
   <si>
-    <t>IT123</t>
+    <t>GM2</t>
   </si>
   <si>
-    <t>BOD123</t>
+    <t>GM3</t>
   </si>
   <si>
-    <t>User Management123</t>
+    <t>GM4</t>
   </si>
   <si>
-    <t>OPS123</t>
+    <t>GM5</t>
   </si>
   <si>
-    <t>HR123</t>
+    <t>GM6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +178,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -884,7 +890,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -925,6 +931,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/data-test/groupmenu.xlsx
+++ b/src/test/resources/data-test/groupmenu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPRINGBOOT-PT-DIKA\pcmspringbootrestapidika\src\test\resources\data-test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF28530B-8440-422A-A642-A2408A150794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3278B94-76A8-4120-B6FD-674793329B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{47EA533E-3F0C-4ED1-A111-B65235F9FF84}"/>
   </bookViews>
@@ -25,22 +25,22 @@
     <t>name</t>
   </si>
   <si>
-    <t>GM1</t>
+    <t>GM42</t>
   </si>
   <si>
-    <t>GM2</t>
+    <t>GM43</t>
   </si>
   <si>
-    <t>GM3</t>
+    <t>GM44</t>
   </si>
   <si>
-    <t>GM4</t>
+    <t>GM45</t>
   </si>
   <si>
-    <t>GM5</t>
+    <t>GM46</t>
   </si>
   <si>
-    <t>GM6</t>
+    <t>GM47</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
